--- a/sbdo_tracks_home/raw_data/sbdo_dep_day_compare.xlsx
+++ b/sbdo_tracks_home/raw_data/sbdo_dep_day_compare.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosalynbathrick/Desktop/R Projects/SBDO_ms_2/sbdo_tracks_home/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F681C0-F7CD-B242-8DF8-F63DC9471583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAE8DB8-0AB4-264B-AC16-B8C496CAA572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="840" windowWidth="28640" windowHeight="16120" xr2:uid="{86CF75BE-258C-4D4E-AF14-5007053FED3C}"/>
+    <workbookView xWindow="-33640" yWindow="-220" windowWidth="32540" windowHeight="18140" xr2:uid="{86CF75BE-258C-4D4E-AF14-5007053FED3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="set_up_neg_binom" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AG$17</definedName>
@@ -47,7 +46,7 @@
     <author>tc={92312632-F1F4-334C-9AAF-14ED78B92B96}</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{7307207E-6DF2-A749-BC2E-ED3CD458C600}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{7307207E-6DF2-A749-BC2E-ED3CD458C600}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +55,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="A13" authorId="1" shapeId="0" xr:uid="{23531AF8-383E-9E40-91BB-B5161CCF1A45}">
+    <comment ref="A9" authorId="1" shapeId="0" xr:uid="{23531AF8-383E-9E40-91BB-B5161CCF1A45}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +63,7 @@
     5 day gap, but then 2 points a day apart. I want to say this bird left 6/29, given the pace it was moving in the next two points</t>
       </text>
     </comment>
-    <comment ref="A15" authorId="2" shapeId="0" xr:uid="{92312632-F1F4-334C-9AAF-14ED78B92B96}">
+    <comment ref="A10" authorId="2" shapeId="0" xr:uid="{92312632-F1F4-334C-9AAF-14ED78B92B96}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -165,18 +164,6 @@
   </si>
   <si>
     <t>dist_to_next_km</t>
-  </si>
-  <si>
-    <t>dep</t>
-  </si>
-  <si>
-    <t>tw</t>
-  </si>
-  <si>
-    <t>day before dep</t>
-  </si>
-  <si>
-    <t>max_ws</t>
   </si>
   <si>
     <t>dep_day_hand_1</t>
@@ -574,14 +561,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A9" dT="2023-04-04T20:24:44.52" personId="{7B10F5AC-81BB-714E-B8C0-22203F21E4A0}" id="{7307207E-6DF2-A749-BC2E-ED3CD458C600}">
+  <threadedComment ref="A3" dT="2023-04-04T20:24:44.52" personId="{7B10F5AC-81BB-714E-B8C0-22203F21E4A0}" id="{7307207E-6DF2-A749-BC2E-ED3CD458C600}">
     <text xml:space="preserve">This bird did a quick trip down the peninsula (150 km) and back. Exclude?? If we include that as the dep day, there is a 5 day gap.
 </text>
   </threadedComment>
-  <threadedComment ref="A13" dT="2023-04-04T20:30:06.99" personId="{7B10F5AC-81BB-714E-B8C0-22203F21E4A0}" id="{23531AF8-383E-9E40-91BB-B5161CCF1A45}">
+  <threadedComment ref="A9" dT="2023-04-04T20:30:06.99" personId="{7B10F5AC-81BB-714E-B8C0-22203F21E4A0}" id="{23531AF8-383E-9E40-91BB-B5161CCF1A45}">
     <text>5 day gap, but then 2 points a day apart. I want to say this bird left 6/29, given the pace it was moving in the next two points</text>
   </threadedComment>
-  <threadedComment ref="A15" dT="2023-04-04T20:34:53.02" personId="{7B10F5AC-81BB-714E-B8C0-22203F21E4A0}" id="{92312632-F1F4-334C-9AAF-14ED78B92B96}">
+  <threadedComment ref="A10" dT="2023-04-04T20:34:53.02" personId="{7B10F5AC-81BB-714E-B8C0-22203F21E4A0}" id="{92312632-F1F4-334C-9AAF-14ED78B92B96}">
     <text xml:space="preserve">Same as 233820
 </text>
   </threadedComment>
@@ -590,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6CFE96-B674-C64B-B85A-88C10AD99D45}">
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,15 +591,16 @@
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" style="3" customWidth="1"/>
     <col min="10" max="12" width="18.1640625" style="1" customWidth="1"/>
     <col min="13" max="16" width="18.1640625" style="2" customWidth="1"/>
     <col min="17" max="17" width="19.1640625" customWidth="1"/>
     <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,10 +623,10 @@
         <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>26</v>
@@ -650,16 +638,16 @@
         <v>27</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="Q1" t="s">
         <v>25</v>
@@ -713,9 +701,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>233824</v>
+        <v>233816</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -724,191 +712,196 @@
         <v>2022</v>
       </c>
       <c r="D2">
-        <v>-156.62811300000001</v>
+        <v>-157.08235199999999</v>
       </c>
       <c r="E2">
-        <v>58.646438600000003</v>
+        <v>58.742847400000002</v>
       </c>
       <c r="F2">
-        <v>-156.72999999999999</v>
+        <v>-157.22999999999999</v>
       </c>
       <c r="G2">
         <v>58.7</v>
       </c>
       <c r="H2" s="3">
-        <v>44751</v>
+        <v>44753</v>
       </c>
       <c r="I2" s="3">
-        <f>H2-1</f>
-        <v>44750</v>
+        <v>44752.666666666664</v>
       </c>
       <c r="J2" s="1">
         <v>2</v>
       </c>
       <c r="K2" s="1">
-        <v>138</v>
+        <v>3702</v>
       </c>
       <c r="L2" s="1">
         <f>K2/J2</f>
-        <v>69</v>
+        <v>1851</v>
       </c>
       <c r="M2" s="3">
-        <v>44751</v>
-      </c>
-      <c r="N2" s="3">
-        <v>44752</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+        <v>44752.666666666664</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>44752.666666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>233812</v>
+        <v>233818</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
-        <v>-150.48306299999999</v>
+        <v>-156.989532</v>
       </c>
       <c r="E3">
-        <v>61.258739499999997</v>
+        <v>58.861400600000003</v>
       </c>
       <c r="F3">
-        <v>-150.47999999999999</v>
+        <v>-156.97999999999999</v>
       </c>
       <c r="G3">
-        <v>61.26</v>
+        <v>58.95</v>
       </c>
       <c r="H3" s="3">
-        <v>44755</v>
+        <v>44753</v>
       </c>
       <c r="I3" s="3">
-        <f>H3-1</f>
-        <v>44754</v>
+        <v>44752.666666666664</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
       </c>
       <c r="K3" s="1">
-        <v>158</v>
+        <v>3039</v>
       </c>
       <c r="L3" s="1">
         <f>K3/J3</f>
-        <v>79</v>
+        <v>1519.5</v>
       </c>
       <c r="M3" s="3">
-        <v>44755</v>
-      </c>
-      <c r="N3" s="3">
-        <v>44756</v>
-      </c>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+        <v>44752.666666666664</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>44752.666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>181625</v>
+        <v>233819</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>2022</v>
       </c>
       <c r="D4">
-        <v>-150.83308410000001</v>
+        <v>-157.00981100000001</v>
       </c>
       <c r="E4">
-        <v>61.244865400000002</v>
+        <v>58.804542499999997</v>
       </c>
       <c r="F4">
-        <v>-150.72999999999999</v>
+        <v>-156.97999999999999</v>
       </c>
       <c r="G4">
-        <v>61.26</v>
+        <v>58.95</v>
       </c>
       <c r="H4" s="3">
         <v>44753</v>
       </c>
       <c r="I4" s="3">
-        <f>H4-1</f>
-        <v>44752</v>
+        <v>44752.666666666664</v>
       </c>
       <c r="J4" s="1">
         <v>2</v>
       </c>
       <c r="K4" s="1">
-        <v>638</v>
+        <v>3490</v>
       </c>
       <c r="L4" s="1">
         <f>K4/J4</f>
-        <v>319</v>
+        <v>1745</v>
       </c>
       <c r="M4" s="3">
-        <v>44753</v>
-      </c>
-      <c r="N4" s="3">
-        <v>44754</v>
-      </c>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+        <v>44752.666666666664</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>44752.666666666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>181626</v>
+        <v>233821</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
-        <v>-151.0454407</v>
+        <v>-157.03604100000001</v>
       </c>
       <c r="E5">
-        <v>61.152961699999999</v>
+        <v>58.7880325</v>
       </c>
       <c r="F5">
-        <v>-150.97999999999999</v>
+        <v>-156.97999999999999</v>
       </c>
       <c r="G5">
-        <v>61.01</v>
+        <v>58.7</v>
       </c>
       <c r="H5" s="3">
-        <v>44769</v>
+        <v>44775</v>
       </c>
       <c r="I5" s="3">
-        <f>H5-1</f>
-        <v>44768</v>
+        <v>44774.666666666664</v>
       </c>
       <c r="J5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" s="1">
-        <v>1208</v>
+        <v>4248</v>
       </c>
       <c r="L5" s="1">
         <f>K5/J5</f>
-        <v>604</v>
+        <v>1062</v>
       </c>
       <c r="M5" s="3">
-        <v>44769</v>
+        <v>44774.666666666664</v>
       </c>
       <c r="N5" s="3">
-        <v>44770</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+        <v>44775.666666608799</v>
+      </c>
+      <c r="O5" s="3">
+        <v>44776.666666608799</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>44774.666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>233817</v>
+        <v>233824</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -917,10 +910,10 @@
         <v>2022</v>
       </c>
       <c r="D6">
-        <v>-156.73022460000001</v>
+        <v>-156.62811300000001</v>
       </c>
       <c r="E6">
-        <v>58.720447499999999</v>
+        <v>58.646438600000003</v>
       </c>
       <c r="F6">
         <v>-156.72999999999999</v>
@@ -929,136 +922,137 @@
         <v>58.7</v>
       </c>
       <c r="H6" s="3">
-        <v>44745</v>
+        <v>44751</v>
       </c>
       <c r="I6" s="3">
-        <f>H6-1</f>
-        <v>44744</v>
+        <v>44750.666666666664</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>1383</v>
+        <v>138</v>
       </c>
       <c r="L6" s="1">
         <f>K6/J6</f>
-        <v>691.5</v>
+        <v>69</v>
       </c>
       <c r="M6" s="3">
-        <v>44745</v>
+        <v>44750.666666666664</v>
       </c>
       <c r="N6" s="3">
-        <v>44746</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+        <v>44751.666666608799</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>44750.666666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>233813</v>
+        <v>233817</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
-        <v>-150.990555</v>
+        <v>-156.73022460000001</v>
       </c>
       <c r="E7">
-        <v>61.179225899999999</v>
+        <v>58.720447499999999</v>
       </c>
       <c r="F7">
-        <v>-150.97999999999999</v>
+        <v>-156.72999999999999</v>
       </c>
       <c r="G7">
-        <v>61.26</v>
+        <v>58.7</v>
       </c>
       <c r="H7" s="3">
-        <v>44773</v>
+        <v>44745</v>
       </c>
       <c r="I7" s="3">
-        <f>H7-1</f>
-        <v>44772</v>
+        <v>44744.666666666664</v>
       </c>
       <c r="J7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>313</v>
+        <v>1383</v>
       </c>
       <c r="L7" s="1">
         <f>K7/J7</f>
-        <v>78.25</v>
+        <v>691.5</v>
       </c>
       <c r="M7" s="3">
-        <v>44773</v>
+        <v>44744.666666666664</v>
       </c>
       <c r="N7" s="3">
-        <v>44774</v>
-      </c>
-      <c r="O7" s="3">
-        <v>44775</v>
-      </c>
-      <c r="P7" s="3">
-        <v>44776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+        <v>44745.666666608799</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>44744.666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>181624</v>
+        <v>233815</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>2022</v>
       </c>
       <c r="D8">
-        <v>-151.452652</v>
+        <v>-156.84852599999999</v>
       </c>
       <c r="E8">
-        <v>61.014438599999998</v>
+        <v>58.7665291</v>
       </c>
       <c r="F8">
-        <v>-151.47999999999999</v>
+        <v>-156.72999999999999</v>
       </c>
       <c r="G8">
-        <v>61.01</v>
+        <v>58.7</v>
       </c>
       <c r="H8" s="3">
-        <v>44757</v>
+        <v>44753</v>
       </c>
       <c r="I8" s="3">
-        <f>H8-1</f>
-        <v>44756</v>
+        <v>44752.666666666664</v>
       </c>
       <c r="J8" s="1">
         <v>2</v>
       </c>
       <c r="K8" s="1">
-        <v>2349</v>
+        <v>3342</v>
       </c>
       <c r="L8" s="1">
         <f>K8/J8</f>
-        <v>1174.5</v>
+        <v>1671</v>
       </c>
       <c r="M8" s="3">
-        <v>44757</v>
-      </c>
-      <c r="N8" s="3">
-        <v>44758</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+        <v>44752.666666666664</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>44752.666666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>233818</v>
+        <v>233820</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1067,364 +1061,388 @@
         <v>2022</v>
       </c>
       <c r="D9">
-        <v>-156.989532</v>
+        <v>-156.6282349</v>
       </c>
       <c r="E9">
-        <v>58.861400600000003</v>
+        <v>58.647079499999997</v>
       </c>
       <c r="F9">
-        <v>-156.97999999999999</v>
+        <v>-156.72999999999999</v>
       </c>
       <c r="G9">
-        <v>58.95</v>
+        <v>58.7</v>
       </c>
       <c r="H9" s="3">
-        <v>44753</v>
+        <v>44737</v>
       </c>
       <c r="I9" s="3">
-        <f>H9-1</f>
-        <v>44752</v>
+        <v>44736.666666666664</v>
       </c>
       <c r="J9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K9" s="1">
-        <v>3039</v>
+        <v>1075</v>
       </c>
       <c r="L9" s="1">
         <f>K9/J9</f>
-        <v>1519.5</v>
+        <v>215</v>
       </c>
       <c r="M9" s="2">
-        <v>44752</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+        <v>44740</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>44736.666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>233811</v>
+        <v>233823</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>2022</v>
       </c>
       <c r="D10">
-        <v>-151.0166931</v>
+        <v>-156.62820429999999</v>
       </c>
       <c r="E10">
-        <v>61.2118416</v>
+        <v>58.647052799999997</v>
       </c>
       <c r="F10">
-        <v>-150.97999999999999</v>
+        <v>-156.72999999999999</v>
       </c>
       <c r="G10">
-        <v>61.26</v>
+        <v>58.7</v>
       </c>
       <c r="H10" s="3">
-        <v>44747</v>
+        <v>44737</v>
       </c>
       <c r="I10" s="3">
-        <f>H10-1</f>
-        <v>44746</v>
+        <v>44736.666666666664</v>
       </c>
       <c r="J10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K10" s="1">
-        <v>3297</v>
+        <v>1075</v>
       </c>
       <c r="L10" s="1">
         <f>K10/J10</f>
-        <v>1648.5</v>
+        <v>215</v>
       </c>
       <c r="M10" s="2">
-        <v>44747</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+        <v>44740</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>44736.666666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>233815</v>
+        <v>181624</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
-        <v>-156.84852599999999</v>
+        <v>-151.452652</v>
       </c>
       <c r="E11">
-        <v>58.7665291</v>
+        <v>61.014438599999998</v>
       </c>
       <c r="F11">
-        <v>-156.72999999999999</v>
+        <v>-151.47999999999999</v>
       </c>
       <c r="G11">
-        <v>58.7</v>
+        <v>61.01</v>
       </c>
       <c r="H11" s="3">
-        <v>44753</v>
+        <v>44757</v>
       </c>
       <c r="I11" s="3">
-        <f>H11-1</f>
-        <v>44752</v>
+        <v>44756.666666666664</v>
       </c>
       <c r="J11" s="1">
         <v>2</v>
       </c>
       <c r="K11" s="1">
-        <v>3342</v>
+        <v>2349</v>
       </c>
       <c r="L11" s="1">
         <f>K11/J11</f>
-        <v>1671</v>
-      </c>
-      <c r="M11" s="2">
-        <v>44753</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+        <v>1174.5</v>
+      </c>
+      <c r="M11" s="3">
+        <v>44756.666666666664</v>
+      </c>
+      <c r="N11" s="3">
+        <v>44757.666666608799</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>44756.666666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>233819</v>
+        <v>181626</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>2022</v>
       </c>
       <c r="D12">
-        <v>-157.00981100000001</v>
+        <v>-151.0454407</v>
       </c>
       <c r="E12">
-        <v>58.804542499999997</v>
+        <v>61.152961699999999</v>
       </c>
       <c r="F12">
-        <v>-156.97999999999999</v>
+        <v>-150.97999999999999</v>
       </c>
       <c r="G12">
-        <v>58.95</v>
+        <v>61.01</v>
       </c>
       <c r="H12" s="3">
-        <v>44753</v>
+        <v>44769</v>
       </c>
       <c r="I12" s="3">
-        <f>H12-1</f>
-        <v>44752</v>
+        <v>44768.666666666664</v>
       </c>
       <c r="J12" s="1">
         <v>2</v>
       </c>
       <c r="K12" s="1">
-        <v>3490</v>
+        <v>1208</v>
       </c>
       <c r="L12" s="1">
         <f>K12/J12</f>
-        <v>1745</v>
-      </c>
-      <c r="M12" s="2">
-        <v>44753</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+      <c r="M12" s="3">
+        <v>44768.666666666664</v>
+      </c>
+      <c r="N12" s="3">
+        <v>44769.666666608799</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>44768.666666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>233820</v>
+        <v>233813</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13">
-        <v>-156.6282349</v>
+        <v>-150.990555</v>
       </c>
       <c r="E13">
-        <v>58.647079499999997</v>
+        <v>61.179225899999999</v>
       </c>
       <c r="F13">
-        <v>-156.72999999999999</v>
+        <v>-150.97999999999999</v>
       </c>
       <c r="G13">
-        <v>58.7</v>
+        <v>61.26</v>
       </c>
       <c r="H13" s="3">
-        <v>44737</v>
+        <v>44773</v>
       </c>
       <c r="I13" s="3">
-        <f>H13-1</f>
-        <v>44736</v>
+        <v>44772.666666666664</v>
       </c>
       <c r="J13" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13" s="1">
-        <v>1075</v>
+        <v>313</v>
       </c>
       <c r="L13" s="1">
         <f>K13/J13</f>
-        <v>215</v>
-      </c>
-      <c r="M13" s="2">
-        <v>44741</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+        <v>78.25</v>
+      </c>
+      <c r="M13" s="3">
+        <v>44772.666666666664</v>
+      </c>
+      <c r="N13" s="3">
+        <v>44773.666666608799</v>
+      </c>
+      <c r="O13" s="3">
+        <v>44774.666666608799</v>
+      </c>
+      <c r="P13" s="3">
+        <v>44775.666666608799</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>44772.666666666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>233821</v>
+        <v>233811</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>2022</v>
       </c>
       <c r="D14">
-        <v>-157.03604100000001</v>
+        <v>-151.0166931</v>
       </c>
       <c r="E14">
-        <v>58.7880325</v>
+        <v>61.2118416</v>
       </c>
       <c r="F14">
-        <v>-156.97999999999999</v>
+        <v>-150.97999999999999</v>
       </c>
       <c r="G14">
-        <v>58.7</v>
+        <v>61.26</v>
       </c>
       <c r="H14" s="3">
-        <v>44775</v>
+        <v>44747</v>
       </c>
       <c r="I14" s="3">
-        <f>H14-1</f>
-        <v>44774</v>
+        <v>44746.666666666664</v>
       </c>
       <c r="J14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1">
-        <v>4248</v>
+        <v>3297</v>
       </c>
       <c r="L14" s="1">
         <f>K14/J14</f>
-        <v>1062</v>
+        <v>1648.5</v>
       </c>
       <c r="M14" s="3">
-        <v>44775</v>
-      </c>
-      <c r="N14" s="3">
-        <v>44776</v>
-      </c>
-      <c r="O14" s="3">
-        <v>44777</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+        <v>44746.666666666664</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>44746.666666666664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>233823</v>
+        <v>181625</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>2022</v>
       </c>
       <c r="D15">
-        <v>-156.62820429999999</v>
+        <v>-150.83308410000001</v>
       </c>
       <c r="E15">
-        <v>58.647052799999997</v>
+        <v>61.244865400000002</v>
       </c>
       <c r="F15">
-        <v>-156.72999999999999</v>
+        <v>-150.72999999999999</v>
       </c>
       <c r="G15">
-        <v>58.7</v>
+        <v>61.26</v>
       </c>
       <c r="H15" s="3">
-        <v>44737</v>
+        <v>44753</v>
       </c>
       <c r="I15" s="3">
-        <f>H15-1</f>
-        <v>44736</v>
+        <v>44752.666666666664</v>
       </c>
       <c r="J15" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K15" s="1">
-        <v>1075</v>
+        <v>638</v>
       </c>
       <c r="L15" s="1">
         <f>K15/J15</f>
-        <v>215</v>
-      </c>
-      <c r="M15" s="2">
-        <v>44741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="M15" s="3">
+        <v>44752.666666666664</v>
+      </c>
+      <c r="N15" s="3">
+        <v>44753.666666608799</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="AH15" s="3">
+        <v>44752.666666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>233816</v>
+        <v>233812</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>2022</v>
       </c>
       <c r="D16">
-        <v>-157.08235199999999</v>
+        <v>-150.48306299999999</v>
       </c>
       <c r="E16">
-        <v>58.742847400000002</v>
+        <v>61.258739499999997</v>
       </c>
       <c r="F16">
-        <v>-157.22999999999999</v>
+        <v>-150.47999999999999</v>
       </c>
       <c r="G16">
-        <v>58.7</v>
+        <v>61.26</v>
       </c>
       <c r="H16" s="3">
-        <v>44753</v>
+        <v>44755</v>
       </c>
       <c r="I16" s="3">
-        <f>H16-1</f>
-        <v>44752</v>
+        <v>44754.666666666664</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
       </c>
       <c r="K16" s="1">
-        <v>3702</v>
+        <v>158</v>
       </c>
       <c r="L16" s="1">
         <f>K16/J16</f>
-        <v>1851</v>
-      </c>
-      <c r="M16" s="2">
-        <v>44753</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="M16" s="3">
+        <v>44754.666666666664</v>
+      </c>
+      <c r="N16" s="3">
+        <v>44755.666666608799</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="AH16" s="3">
+        <v>44754.666666666664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>198767</v>
       </c>
@@ -1440,244 +1458,52 @@
       <c r="E17">
         <v>61.213629599999997</v>
       </c>
+      <c r="F17">
+        <v>-150.97999999999999</v>
+      </c>
+      <c r="G17">
+        <v>61.26</v>
+      </c>
       <c r="H17" s="3">
         <v>44389</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" ref="I3:I17" si="0">H17-1</f>
-        <v>44388</v>
+        <v>44388.666666666664</v>
       </c>
       <c r="J17" s="1">
         <v>3</v>
       </c>
+      <c r="K17" s="1">
+        <v>2102</v>
+      </c>
+      <c r="L17" s="1">
+        <f>K17/J17</f>
+        <v>700.66666666666663</v>
+      </c>
+      <c r="M17" s="3">
+        <v>44388.666666666664</v>
+      </c>
+      <c r="N17" s="3">
+        <v>44389.666666608799</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>44388.666666666664</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG17" xr:uid="{4E6CFE96-B674-C64B-B85A-88C10AD99D45}"/>
+  <autoFilter ref="A1:AG17" xr:uid="{4E6CFE96-B674-C64B-B85A-88C10AD99D45}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG10">
+      <sortCondition ref="F1:F17"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9D41FD-FFCB-184B-A248-42254C43EC75}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>181624</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2">
-        <v>2022</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>181624</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>2022</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>181624</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>2022</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>181624</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>2022</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>181624</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>2022</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>-2</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>181624</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>2022</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>181624</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>2022</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>181624</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>2022</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/sbdo_tracks_home/raw_data/sbdo_dep_day_compare.xlsx
+++ b/sbdo_tracks_home/raw_data/sbdo_dep_day_compare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosalynbathrick/Desktop/R Projects/SBDO_ms_2/sbdo_tracks_home/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAE8DB8-0AB4-264B-AC16-B8C496CAA572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC96CE26-13C7-974D-8385-E324BAB11044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33640" yWindow="-220" windowWidth="32540" windowHeight="18140" xr2:uid="{86CF75BE-258C-4D4E-AF14-5007053FED3C}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{86CF75BE-258C-4D4E-AF14-5007053FED3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AG$17</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -192,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;\ hh:mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;\ hh:mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,12 +208,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -239,8 +233,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,7 +574,7 @@
   <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -736,7 +730,7 @@
         <v>3702</v>
       </c>
       <c r="L2" s="1">
-        <f>K2/J2</f>
+        <f t="shared" ref="L2:L17" si="0">K2/J2</f>
         <v>1851</v>
       </c>
       <c r="M2" s="3">
@@ -784,7 +778,7 @@
         <v>3039</v>
       </c>
       <c r="L3" s="1">
-        <f>K3/J3</f>
+        <f t="shared" si="0"/>
         <v>1519.5</v>
       </c>
       <c r="M3" s="3">
@@ -832,7 +826,7 @@
         <v>3490</v>
       </c>
       <c r="L4" s="1">
-        <f>K4/J4</f>
+        <f t="shared" si="0"/>
         <v>1745</v>
       </c>
       <c r="M4" s="3">
@@ -847,159 +841,153 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>233821</v>
+        <v>181624</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
-        <v>-157.03604100000001</v>
+        <v>-151.452652</v>
       </c>
       <c r="E5">
-        <v>58.7880325</v>
+        <v>61.014438599999998</v>
       </c>
       <c r="F5">
-        <v>-156.97999999999999</v>
+        <v>-151.47999999999999</v>
       </c>
       <c r="G5">
-        <v>58.7</v>
+        <v>61.01</v>
       </c>
       <c r="H5" s="3">
-        <v>44775</v>
+        <v>44757</v>
       </c>
       <c r="I5" s="3">
-        <v>44774.666666666664</v>
+        <v>44756.666666666664</v>
       </c>
       <c r="J5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1">
-        <v>4248</v>
+        <v>2349</v>
       </c>
       <c r="L5" s="1">
         <f>K5/J5</f>
-        <v>1062</v>
+        <v>1174.5</v>
       </c>
       <c r="M5" s="3">
-        <v>44774.666666666664</v>
+        <v>44756.666666666664</v>
       </c>
       <c r="N5" s="3">
-        <v>44775.666666608799</v>
-      </c>
-      <c r="O5" s="3">
-        <v>44776.666666608799</v>
-      </c>
-      <c r="P5" s="2" t="s">
+        <v>44757.666666608799</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AH5" s="3">
-        <v>44774.666666666664</v>
+        <v>44756.666666666664</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>233824</v>
+        <v>181625</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>2022</v>
       </c>
       <c r="D6">
-        <v>-156.62811300000001</v>
+        <v>-150.83308410000001</v>
       </c>
       <c r="E6">
-        <v>58.646438600000003</v>
+        <v>61.244865400000002</v>
       </c>
       <c r="F6">
-        <v>-156.72999999999999</v>
+        <v>-150.72999999999999</v>
       </c>
       <c r="G6">
-        <v>58.7</v>
+        <v>61.26</v>
       </c>
       <c r="H6" s="3">
-        <v>44751</v>
+        <v>44753</v>
       </c>
       <c r="I6" s="3">
-        <v>44750.666666666664</v>
+        <v>44752.666666666664</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>138</v>
+        <v>638</v>
       </c>
       <c r="L6" s="1">
         <f>K6/J6</f>
-        <v>69</v>
+        <v>319</v>
       </c>
       <c r="M6" s="3">
-        <v>44750.666666666664</v>
+        <v>44752.666666666664</v>
       </c>
       <c r="N6" s="3">
-        <v>44751.666666608799</v>
+        <v>44753.666666608799</v>
       </c>
       <c r="O6" s="3"/>
-      <c r="P6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="AH6" s="3">
-        <v>44750.666666666664</v>
+        <v>44752.666666666664</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>233817</v>
+        <v>181626</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
-        <v>-156.73022460000001</v>
+        <v>-151.0454407</v>
       </c>
       <c r="E7">
-        <v>58.720447499999999</v>
+        <v>61.152961699999999</v>
       </c>
       <c r="F7">
-        <v>-156.72999999999999</v>
+        <v>-150.97999999999999</v>
       </c>
       <c r="G7">
-        <v>58.7</v>
+        <v>61.01</v>
       </c>
       <c r="H7" s="3">
-        <v>44745</v>
+        <v>44769</v>
       </c>
       <c r="I7" s="3">
-        <v>44744.666666666664</v>
+        <v>44768.666666666664</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>1383</v>
+        <v>1208</v>
       </c>
       <c r="L7" s="1">
         <f>K7/J7</f>
-        <v>691.5</v>
+        <v>604</v>
       </c>
       <c r="M7" s="3">
-        <v>44744.666666666664</v>
+        <v>44768.666666666664</v>
       </c>
       <c r="N7" s="3">
-        <v>44745.666666608799</v>
+        <v>44769.666666608799</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="AH7" s="3">
-        <v>44744.666666666664</v>
+        <v>44768.666666666664</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -1091,6 +1079,9 @@
       <c r="M9" s="2">
         <v>44740</v>
       </c>
+      <c r="N9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="AH9" s="3">
         <v>44736.666666666664</v>
       </c>
@@ -1136,64 +1127,70 @@
       <c r="M10" s="2">
         <v>44740</v>
       </c>
+      <c r="N10" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="AH10" s="3">
         <v>44736.666666666664</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>181624</v>
+        <v>198767</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D11">
-        <v>-151.452652</v>
+        <v>-150.92207099999999</v>
       </c>
       <c r="E11">
-        <v>61.014438599999998</v>
+        <v>61.213629599999997</v>
       </c>
       <c r="F11">
-        <v>-151.47999999999999</v>
+        <v>-150.97999999999999</v>
       </c>
       <c r="G11">
-        <v>61.01</v>
+        <v>61.26</v>
       </c>
       <c r="H11" s="3">
-        <v>44757</v>
+        <v>44389</v>
       </c>
       <c r="I11" s="3">
-        <v>44756.666666666664</v>
+        <v>44388.666666666664</v>
       </c>
       <c r="J11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" s="1">
-        <v>2349</v>
+        <v>2102</v>
       </c>
       <c r="L11" s="1">
         <f>K11/J11</f>
-        <v>1174.5</v>
+        <v>700.66666666666663</v>
       </c>
       <c r="M11" s="3">
-        <v>44756.666666666664</v>
+        <v>44388.666666666664</v>
       </c>
       <c r="N11" s="3">
-        <v>44757.666666608799</v>
+        <v>44389.666666608799</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="P11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="AH11" s="3">
-        <v>44756.666666666664</v>
+        <v>44388.666666666664</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>181626</v>
+        <v>233812</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -1202,44 +1199,42 @@
         <v>2022</v>
       </c>
       <c r="D12">
-        <v>-151.0454407</v>
+        <v>-150.48306299999999</v>
       </c>
       <c r="E12">
-        <v>61.152961699999999</v>
+        <v>61.258739499999997</v>
       </c>
       <c r="F12">
-        <v>-150.97999999999999</v>
+        <v>-150.47999999999999</v>
       </c>
       <c r="G12">
-        <v>61.01</v>
+        <v>61.26</v>
       </c>
       <c r="H12" s="3">
-        <v>44769</v>
+        <v>44755</v>
       </c>
       <c r="I12" s="3">
-        <v>44768.666666666664</v>
+        <v>44754.666666666664</v>
       </c>
       <c r="J12" s="1">
         <v>2</v>
       </c>
       <c r="K12" s="1">
-        <v>1208</v>
+        <v>158</v>
       </c>
       <c r="L12" s="1">
         <f>K12/J12</f>
-        <v>604</v>
+        <v>79</v>
       </c>
       <c r="M12" s="3">
-        <v>44768.666666666664</v>
+        <v>44754.666666666664</v>
       </c>
       <c r="N12" s="3">
-        <v>44769.666666608799</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>44755.666666608799</v>
+      </c>
+      <c r="O12" s="3"/>
       <c r="AH12" s="3">
-        <v>44768.666666666664</v>
+        <v>44754.666666666664</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
@@ -1346,162 +1341,166 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>181625</v>
+        <v>233817</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>2022</v>
       </c>
       <c r="D15">
-        <v>-150.83308410000001</v>
+        <v>-156.73022460000001</v>
       </c>
       <c r="E15">
-        <v>61.244865400000002</v>
+        <v>58.720447499999999</v>
       </c>
       <c r="F15">
-        <v>-150.72999999999999</v>
+        <v>-156.72999999999999</v>
       </c>
       <c r="G15">
-        <v>61.26</v>
+        <v>58.7</v>
       </c>
       <c r="H15" s="3">
-        <v>44753</v>
+        <v>44745</v>
       </c>
       <c r="I15" s="3">
-        <v>44752.666666666664</v>
+        <v>44744.666666666664</v>
       </c>
       <c r="J15" s="1">
         <v>2</v>
       </c>
       <c r="K15" s="1">
-        <v>638</v>
+        <v>1383</v>
       </c>
       <c r="L15" s="1">
         <f>K15/J15</f>
-        <v>319</v>
+        <v>691.5</v>
       </c>
       <c r="M15" s="3">
-        <v>44752.666666666664</v>
+        <v>44744.666666666664</v>
       </c>
       <c r="N15" s="3">
-        <v>44753.666666608799</v>
-      </c>
-      <c r="O15" s="3"/>
+        <v>44745.666666608799</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="AH15" s="3">
-        <v>44752.666666666664</v>
+        <v>44744.666666666664</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>233812</v>
+        <v>233821</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>2022</v>
       </c>
       <c r="D16">
-        <v>-150.48306299999999</v>
+        <v>-157.03604100000001</v>
       </c>
       <c r="E16">
-        <v>61.258739499999997</v>
+        <v>58.7880325</v>
       </c>
       <c r="F16">
-        <v>-150.47999999999999</v>
+        <v>-156.97999999999999</v>
       </c>
       <c r="G16">
-        <v>61.26</v>
+        <v>58.7</v>
       </c>
       <c r="H16" s="3">
-        <v>44755</v>
+        <v>44775</v>
       </c>
       <c r="I16" s="3">
-        <v>44754.666666666664</v>
+        <v>44774.666666666664</v>
       </c>
       <c r="J16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K16" s="1">
-        <v>158</v>
+        <v>4248</v>
       </c>
       <c r="L16" s="1">
         <f>K16/J16</f>
-        <v>79</v>
+        <v>1062</v>
       </c>
       <c r="M16" s="3">
-        <v>44754.666666666664</v>
+        <v>44774.666666666664</v>
       </c>
       <c r="N16" s="3">
-        <v>44755.666666608799</v>
-      </c>
-      <c r="O16" s="3"/>
+        <v>44775.666666608799</v>
+      </c>
+      <c r="O16" s="3">
+        <v>44776.666666608799</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="AH16" s="3">
-        <v>44754.666666666664</v>
+        <v>44774.666666666664</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>198767</v>
+        <v>233824</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D17">
-        <v>-150.92207099999999</v>
+        <v>-156.62811300000001</v>
       </c>
       <c r="E17">
-        <v>61.213629599999997</v>
+        <v>58.646438600000003</v>
       </c>
       <c r="F17">
-        <v>-150.97999999999999</v>
+        <v>-156.72999999999999</v>
       </c>
       <c r="G17">
-        <v>61.26</v>
+        <v>58.7</v>
       </c>
       <c r="H17" s="3">
-        <v>44389</v>
+        <v>44751</v>
       </c>
       <c r="I17" s="3">
-        <v>44388.666666666664</v>
+        <v>44750.666666666664</v>
       </c>
       <c r="J17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" s="1">
-        <v>2102</v>
+        <v>138</v>
       </c>
       <c r="L17" s="1">
         <f>K17/J17</f>
-        <v>700.66666666666663</v>
+        <v>69</v>
       </c>
       <c r="M17" s="3">
-        <v>44388.666666666664</v>
+        <v>44750.666666666664</v>
       </c>
       <c r="N17" s="3">
-        <v>44389.666666608799</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>44751.666666608799</v>
+      </c>
+      <c r="O17" s="3"/>
       <c r="P17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AH17" s="3">
-        <v>44388.666666666664</v>
+        <v>44750.666666666664</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG17" xr:uid="{4E6CFE96-B674-C64B-B85A-88C10AD99D45}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG10">
-      <sortCondition ref="F1:F17"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AG17" xr:uid="{4E6CFE96-B674-C64B-B85A-88C10AD99D45}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AH17">
+    <sortCondition ref="A5:A17"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/sbdo_tracks_home/raw_data/sbdo_dep_day_compare.xlsx
+++ b/sbdo_tracks_home/raw_data/sbdo_dep_day_compare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosalynbathrick/Desktop/R Projects/SBDO_ms_2/sbdo_tracks_home/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rozyb\Documents\GitHub\SBDO_ms_2\sbdo_tracks_home\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC96CE26-13C7-974D-8385-E324BAB11044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8674532-9164-406E-ACB0-8AAFA42CCC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{86CF75BE-258C-4D4E-AF14-5007053FED3C}"/>
+    <workbookView xWindow="1433" yWindow="0" windowWidth="18075" windowHeight="12510" xr2:uid="{86CF75BE-258C-4D4E-AF14-5007053FED3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>tc={92312632-F1F4-334C-9AAF-14ED78B92B96}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{7307207E-6DF2-A749-BC2E-ED3CD458C600}">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{7307207E-6DF2-A749-BC2E-ED3CD458C600}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +55,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="A9" authorId="1" shapeId="0" xr:uid="{23531AF8-383E-9E40-91BB-B5161CCF1A45}">
+    <comment ref="A14" authorId="1" shapeId="0" xr:uid="{23531AF8-383E-9E40-91BB-B5161CCF1A45}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
     5 day gap, but then 2 points a day apart. I want to say this bird left 6/29, given the pace it was moving in the next two points</t>
       </text>
     </comment>
-    <comment ref="A10" authorId="2" shapeId="0" xr:uid="{92312632-F1F4-334C-9AAF-14ED78B92B96}">
+    <comment ref="A16" authorId="2" shapeId="0" xr:uid="{92312632-F1F4-334C-9AAF-14ED78B92B96}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -555,14 +555,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A3" dT="2023-04-04T20:24:44.52" personId="{7B10F5AC-81BB-714E-B8C0-22203F21E4A0}" id="{7307207E-6DF2-A749-BC2E-ED3CD458C600}">
+  <threadedComment ref="A12" dT="2023-04-04T20:24:44.52" personId="{7B10F5AC-81BB-714E-B8C0-22203F21E4A0}" id="{7307207E-6DF2-A749-BC2E-ED3CD458C600}">
     <text xml:space="preserve">This bird did a quick trip down the peninsula (150 km) and back. Exclude?? If we include that as the dep day, there is a 5 day gap.
 </text>
   </threadedComment>
-  <threadedComment ref="A9" dT="2023-04-04T20:30:06.99" personId="{7B10F5AC-81BB-714E-B8C0-22203F21E4A0}" id="{23531AF8-383E-9E40-91BB-B5161CCF1A45}">
+  <threadedComment ref="A14" dT="2023-04-04T20:30:06.99" personId="{7B10F5AC-81BB-714E-B8C0-22203F21E4A0}" id="{23531AF8-383E-9E40-91BB-B5161CCF1A45}">
     <text>5 day gap, but then 2 points a day apart. I want to say this bird left 6/29, given the pace it was moving in the next two points</text>
   </threadedComment>
-  <threadedComment ref="A10" dT="2023-04-04T20:34:53.02" personId="{7B10F5AC-81BB-714E-B8C0-22203F21E4A0}" id="{92312632-F1F4-334C-9AAF-14ED78B92B96}">
+  <threadedComment ref="A16" dT="2023-04-04T20:34:53.02" personId="{7B10F5AC-81BB-714E-B8C0-22203F21E4A0}" id="{92312632-F1F4-334C-9AAF-14ED78B92B96}">
     <text xml:space="preserve">Same as 233820
 </text>
   </threadedComment>
@@ -574,27 +574,30 @@
   <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="18.1640625" style="1" customWidth="1"/>
-    <col min="13" max="16" width="18.1640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" customWidth="1"/>
-    <col min="34" max="34" width="19.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.1875" customWidth="1"/>
+    <col min="3" max="3" width="10.6875" customWidth="1"/>
+    <col min="4" max="4" width="13.8125" customWidth="1"/>
+    <col min="5" max="5" width="12.8125" customWidth="1"/>
+    <col min="6" max="7" width="12.1875" customWidth="1"/>
+    <col min="8" max="8" width="23.8125" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="23.8125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="18.1875" style="1" customWidth="1"/>
+    <col min="13" max="16" width="18.1875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="19.1875" customWidth="1"/>
+    <col min="18" max="18" width="12.8125" customWidth="1"/>
+    <col min="34" max="34" width="19.3125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -695,75 +698,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>233816</v>
+        <v>181624</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>2022</v>
       </c>
       <c r="D2">
-        <v>-157.08235199999999</v>
+        <v>-151.452652</v>
       </c>
       <c r="E2">
-        <v>58.742847400000002</v>
+        <v>61.014438599999998</v>
       </c>
       <c r="F2">
-        <v>-157.22999999999999</v>
+        <v>-151.47999999999999</v>
       </c>
       <c r="G2">
-        <v>58.7</v>
+        <v>61.01</v>
       </c>
       <c r="H2" s="3">
-        <v>44753</v>
+        <v>44757</v>
       </c>
       <c r="I2" s="3">
-        <v>44752.666666666664</v>
+        <v>44756.666666666664</v>
       </c>
       <c r="J2" s="1">
         <v>2</v>
       </c>
       <c r="K2" s="1">
-        <v>3702</v>
+        <v>2349</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L17" si="0">K2/J2</f>
-        <v>1851</v>
+        <f>K2/J2</f>
+        <v>1174.5</v>
       </c>
       <c r="M2" s="3">
-        <v>44752.666666666664</v>
-      </c>
-      <c r="N2" s="2" t="s">
+        <v>44756.666666666664</v>
+      </c>
+      <c r="N2" s="3">
+        <v>44757.666666608799</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AH2" s="3">
         <v>44752.666666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>233818</v>
+        <v>181625</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
-        <v>-156.989532</v>
+        <v>-150.83308410000001</v>
       </c>
       <c r="E3">
-        <v>58.861400600000003</v>
+        <v>61.244865400000002</v>
       </c>
       <c r="F3">
-        <v>-156.97999999999999</v>
+        <v>-150.72999999999999</v>
       </c>
       <c r="G3">
-        <v>58.95</v>
+        <v>61.26</v>
       </c>
       <c r="H3" s="3">
         <v>44753</v>
@@ -775,124 +781,131 @@
         <v>2</v>
       </c>
       <c r="K3" s="1">
-        <v>3039</v>
+        <v>638</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" si="0"/>
-        <v>1519.5</v>
+        <f>K3/J3</f>
+        <v>319</v>
       </c>
       <c r="M3" s="3">
         <v>44752.666666666664</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="N3" s="3">
+        <v>44753.666666608799</v>
+      </c>
+      <c r="O3" s="3"/>
       <c r="AH3" s="3">
         <v>44752.666666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>233819</v>
+        <v>181626</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>2022</v>
       </c>
       <c r="D4">
-        <v>-157.00981100000001</v>
+        <v>-151.0454407</v>
       </c>
       <c r="E4">
-        <v>58.804542499999997</v>
+        <v>61.152961699999999</v>
       </c>
       <c r="F4">
-        <v>-156.97999999999999</v>
+        <v>-150.97999999999999</v>
       </c>
       <c r="G4">
-        <v>58.95</v>
+        <v>61.01</v>
       </c>
       <c r="H4" s="3">
-        <v>44753</v>
+        <v>44769</v>
       </c>
       <c r="I4" s="3">
-        <v>44752.666666666664</v>
+        <v>44768.666666666664</v>
       </c>
       <c r="J4" s="1">
         <v>2</v>
       </c>
       <c r="K4" s="1">
-        <v>3490</v>
+        <v>1208</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>1745</v>
+        <f>K4/J4</f>
+        <v>604</v>
       </c>
       <c r="M4" s="3">
-        <v>44752.666666666664</v>
-      </c>
-      <c r="N4" s="2" t="s">
+        <v>44768.666666666664</v>
+      </c>
+      <c r="N4" s="3">
+        <v>44769.666666608799</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="AH4" s="3">
         <v>44752.666666666664</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A5">
-        <v>181624</v>
+        <v>198767</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D5">
-        <v>-151.452652</v>
+        <v>-150.92207099999999</v>
       </c>
       <c r="E5">
-        <v>61.014438599999998</v>
+        <v>61.213629599999997</v>
       </c>
       <c r="F5">
-        <v>-151.47999999999999</v>
+        <v>-150.97999999999999</v>
       </c>
       <c r="G5">
-        <v>61.01</v>
+        <v>61.26</v>
       </c>
       <c r="H5" s="3">
-        <v>44757</v>
+        <v>44389</v>
       </c>
       <c r="I5" s="3">
-        <v>44756.666666666664</v>
+        <v>44388.666666666664</v>
       </c>
       <c r="J5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>2349</v>
+        <v>2102</v>
       </c>
       <c r="L5" s="1">
         <f>K5/J5</f>
-        <v>1174.5</v>
+        <v>700.66666666666663</v>
       </c>
       <c r="M5" s="3">
-        <v>44756.666666666664</v>
+        <v>44388.666666666664</v>
       </c>
       <c r="N5" s="3">
-        <v>44757.666666608799</v>
+        <v>44389.666666608799</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="P5" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="AH5" s="3">
         <v>44756.666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A6">
-        <v>181625</v>
+        <v>233811</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -901,47 +914,46 @@
         <v>2022</v>
       </c>
       <c r="D6">
-        <v>-150.83308410000001</v>
+        <v>-151.0166931</v>
       </c>
       <c r="E6">
-        <v>61.244865400000002</v>
+        <v>61.2118416</v>
       </c>
       <c r="F6">
-        <v>-150.72999999999999</v>
+        <v>-150.97999999999999</v>
       </c>
       <c r="G6">
         <v>61.26</v>
       </c>
       <c r="H6" s="3">
-        <v>44753</v>
+        <v>44747</v>
       </c>
       <c r="I6" s="3">
-        <v>44752.666666666664</v>
+        <v>44746.666666666664</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>638</v>
+        <v>3297</v>
       </c>
       <c r="L6" s="1">
         <f>K6/J6</f>
-        <v>319</v>
+        <v>1648.5</v>
       </c>
       <c r="M6" s="3">
-        <v>44752.666666666664</v>
-      </c>
-      <c r="N6" s="3">
-        <v>44753.666666608799</v>
-      </c>
-      <c r="O6" s="3"/>
+        <v>44746.666666666664</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="AH6" s="3">
         <v>44752.666666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A7">
-        <v>181626</v>
+        <v>233812</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -950,97 +962,101 @@
         <v>2022</v>
       </c>
       <c r="D7">
-        <v>-151.0454407</v>
+        <v>-150.48306299999999</v>
       </c>
       <c r="E7">
-        <v>61.152961699999999</v>
+        <v>61.258739499999997</v>
       </c>
       <c r="F7">
-        <v>-150.97999999999999</v>
+        <v>-150.47999999999999</v>
       </c>
       <c r="G7">
-        <v>61.01</v>
+        <v>61.26</v>
       </c>
       <c r="H7" s="3">
-        <v>44769</v>
+        <v>44755</v>
       </c>
       <c r="I7" s="3">
-        <v>44768.666666666664</v>
+        <v>44754.666666666664</v>
       </c>
       <c r="J7" s="1">
         <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>1208</v>
+        <v>158</v>
       </c>
       <c r="L7" s="1">
         <f>K7/J7</f>
-        <v>604</v>
+        <v>79</v>
       </c>
       <c r="M7" s="3">
-        <v>44768.666666666664</v>
+        <v>44754.666666666664</v>
       </c>
       <c r="N7" s="3">
-        <v>44769.666666608799</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>44755.666666608799</v>
+      </c>
+      <c r="O7" s="3"/>
       <c r="AH7" s="3">
         <v>44768.666666666664</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>233815</v>
+        <v>233813</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>2022</v>
       </c>
       <c r="D8">
-        <v>-156.84852599999999</v>
+        <v>-150.990555</v>
       </c>
       <c r="E8">
-        <v>58.7665291</v>
+        <v>61.179225899999999</v>
       </c>
       <c r="F8">
-        <v>-156.72999999999999</v>
+        <v>-150.97999999999999</v>
       </c>
       <c r="G8">
-        <v>58.7</v>
+        <v>61.26</v>
       </c>
       <c r="H8" s="3">
-        <v>44753</v>
+        <v>44773</v>
       </c>
       <c r="I8" s="3">
-        <v>44752.666666666664</v>
+        <v>44772.666666666664</v>
       </c>
       <c r="J8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" s="1">
-        <v>3342</v>
+        <v>313</v>
       </c>
       <c r="L8" s="1">
         <f>K8/J8</f>
-        <v>1671</v>
+        <v>78.25</v>
       </c>
       <c r="M8" s="3">
-        <v>44752.666666666664</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>35</v>
+        <v>44772.666666666664</v>
+      </c>
+      <c r="N8" s="3">
+        <v>44773.666666608799</v>
+      </c>
+      <c r="O8" s="3">
+        <v>44774.666666608799</v>
+      </c>
+      <c r="P8" s="3">
+        <v>44775.666666608799</v>
       </c>
       <c r="AH8" s="3">
         <v>44752.666666666664</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A9">
-        <v>233820</v>
+        <v>233815</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1049,10 +1065,10 @@
         <v>2022</v>
       </c>
       <c r="D9">
-        <v>-156.6282349</v>
+        <v>-156.84852599999999</v>
       </c>
       <c r="E9">
-        <v>58.647079499999997</v>
+        <v>58.7665291</v>
       </c>
       <c r="F9">
         <v>-156.72999999999999</v>
@@ -1061,23 +1077,23 @@
         <v>58.7</v>
       </c>
       <c r="H9" s="3">
-        <v>44737</v>
+        <v>44753</v>
       </c>
       <c r="I9" s="3">
-        <v>44736.666666666664</v>
+        <v>44752.666666666664</v>
       </c>
       <c r="J9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K9" s="1">
-        <v>1075</v>
+        <v>3342</v>
       </c>
       <c r="L9" s="1">
         <f>K9/J9</f>
-        <v>215</v>
-      </c>
-      <c r="M9" s="2">
-        <v>44740</v>
+        <v>1671</v>
+      </c>
+      <c r="M9" s="3">
+        <v>44752.666666666664</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>35</v>
@@ -1086,9 +1102,9 @@
         <v>44736.666666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A10">
-        <v>233823</v>
+        <v>233816</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1097,35 +1113,35 @@
         <v>2022</v>
       </c>
       <c r="D10">
-        <v>-156.62820429999999</v>
+        <v>-157.08235199999999</v>
       </c>
       <c r="E10">
-        <v>58.647052799999997</v>
+        <v>58.742847400000002</v>
       </c>
       <c r="F10">
-        <v>-156.72999999999999</v>
+        <v>-157.22999999999999</v>
       </c>
       <c r="G10">
         <v>58.7</v>
       </c>
       <c r="H10" s="3">
-        <v>44737</v>
+        <v>44753</v>
       </c>
       <c r="I10" s="3">
-        <v>44736.666666666664</v>
+        <v>44752.666666666664</v>
       </c>
       <c r="J10" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" s="1">
-        <v>1075</v>
+        <v>3702</v>
       </c>
       <c r="L10" s="1">
         <f>K10/J10</f>
-        <v>215</v>
-      </c>
-      <c r="M10" s="2">
-        <v>44740</v>
+        <v>1851</v>
+      </c>
+      <c r="M10" s="3">
+        <v>44752.666666666664</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>35</v>
@@ -1134,203 +1150,193 @@
         <v>44736.666666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A11">
-        <v>198767</v>
+        <v>233817</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D11">
-        <v>-150.92207099999999</v>
+        <v>-156.73022460000001</v>
       </c>
       <c r="E11">
-        <v>61.213629599999997</v>
+        <v>58.720447499999999</v>
       </c>
       <c r="F11">
-        <v>-150.97999999999999</v>
+        <v>-156.72999999999999</v>
       </c>
       <c r="G11">
-        <v>61.26</v>
+        <v>58.7</v>
       </c>
       <c r="H11" s="3">
-        <v>44389</v>
+        <v>44745</v>
       </c>
       <c r="I11" s="3">
-        <v>44388.666666666664</v>
+        <v>44744.666666666664</v>
       </c>
       <c r="J11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1">
-        <v>2102</v>
+        <v>1383</v>
       </c>
       <c r="L11" s="1">
         <f>K11/J11</f>
-        <v>700.66666666666663</v>
+        <v>691.5</v>
       </c>
       <c r="M11" s="3">
-        <v>44388.666666666664</v>
+        <v>44744.666666666664</v>
       </c>
       <c r="N11" s="3">
-        <v>44389.666666608799</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="2" t="s">
+        <v>44745.666666608799</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="AH11" s="3">
         <v>44388.666666666664</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A12">
-        <v>233812</v>
+        <v>233818</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>2022</v>
       </c>
       <c r="D12">
-        <v>-150.48306299999999</v>
+        <v>-156.989532</v>
       </c>
       <c r="E12">
-        <v>61.258739499999997</v>
+        <v>58.861400600000003</v>
       </c>
       <c r="F12">
-        <v>-150.47999999999999</v>
+        <v>-156.97999999999999</v>
       </c>
       <c r="G12">
-        <v>61.26</v>
+        <v>58.95</v>
       </c>
       <c r="H12" s="3">
-        <v>44755</v>
+        <v>44753</v>
       </c>
       <c r="I12" s="3">
-        <v>44754.666666666664</v>
+        <v>44752.666666666664</v>
       </c>
       <c r="J12" s="1">
         <v>2</v>
       </c>
       <c r="K12" s="1">
-        <v>158</v>
+        <v>3039</v>
       </c>
       <c r="L12" s="1">
         <f>K12/J12</f>
-        <v>79</v>
+        <v>1519.5</v>
       </c>
       <c r="M12" s="3">
-        <v>44754.666666666664</v>
-      </c>
-      <c r="N12" s="3">
-        <v>44755.666666608799</v>
-      </c>
-      <c r="O12" s="3"/>
+        <v>44752.666666666664</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="AH12" s="3">
         <v>44754.666666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A13">
-        <v>233813</v>
+        <v>233819</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13">
-        <v>-150.990555</v>
+        <v>-157.00981100000001</v>
       </c>
       <c r="E13">
-        <v>61.179225899999999</v>
+        <v>58.804542499999997</v>
       </c>
       <c r="F13">
-        <v>-150.97999999999999</v>
+        <v>-156.97999999999999</v>
       </c>
       <c r="G13">
-        <v>61.26</v>
+        <v>58.95</v>
       </c>
       <c r="H13" s="3">
-        <v>44773</v>
+        <v>44753</v>
       </c>
       <c r="I13" s="3">
-        <v>44772.666666666664</v>
+        <v>44752.666666666664</v>
       </c>
       <c r="J13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K13" s="1">
-        <v>313</v>
+        <v>3490</v>
       </c>
       <c r="L13" s="1">
         <f>K13/J13</f>
-        <v>78.25</v>
+        <v>1745</v>
       </c>
       <c r="M13" s="3">
-        <v>44772.666666666664</v>
-      </c>
-      <c r="N13" s="3">
-        <v>44773.666666608799</v>
-      </c>
-      <c r="O13" s="3">
-        <v>44774.666666608799</v>
-      </c>
-      <c r="P13" s="3">
-        <v>44775.666666608799</v>
+        <v>44752.666666666664</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="AH13" s="3">
         <v>44772.666666666664</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A14">
-        <v>233811</v>
+        <v>233820</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>2022</v>
       </c>
       <c r="D14">
-        <v>-151.0166931</v>
+        <v>-156.6282349</v>
       </c>
       <c r="E14">
-        <v>61.2118416</v>
+        <v>58.647079499999997</v>
       </c>
       <c r="F14">
-        <v>-150.97999999999999</v>
+        <v>-156.72999999999999</v>
       </c>
       <c r="G14">
-        <v>61.26</v>
+        <v>58.7</v>
       </c>
       <c r="H14" s="3">
-        <v>44747</v>
+        <v>44737</v>
       </c>
       <c r="I14" s="3">
-        <v>44746.666666666664</v>
+        <v>44736.666666666664</v>
       </c>
       <c r="J14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K14" s="1">
-        <v>3297</v>
+        <v>1075</v>
       </c>
       <c r="L14" s="1">
         <f>K14/J14</f>
-        <v>1648.5</v>
-      </c>
-      <c r="M14" s="3">
-        <v>44746.666666666664</v>
+        <v>215</v>
+      </c>
+      <c r="M14" s="2">
+        <v>44740</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>35</v>
@@ -1339,9 +1345,9 @@
         <v>44746.666666666664</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A15">
-        <v>233817</v>
+        <v>233821</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -1350,49 +1356,52 @@
         <v>2022</v>
       </c>
       <c r="D15">
-        <v>-156.73022460000001</v>
+        <v>-157.03604100000001</v>
       </c>
       <c r="E15">
-        <v>58.720447499999999</v>
+        <v>58.7880325</v>
       </c>
       <c r="F15">
-        <v>-156.72999999999999</v>
+        <v>-156.97999999999999</v>
       </c>
       <c r="G15">
         <v>58.7</v>
       </c>
       <c r="H15" s="3">
-        <v>44745</v>
+        <v>44775</v>
       </c>
       <c r="I15" s="3">
-        <v>44744.666666666664</v>
+        <v>44774.666666666664</v>
       </c>
       <c r="J15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15" s="1">
-        <v>1383</v>
+        <v>4248</v>
       </c>
       <c r="L15" s="1">
         <f>K15/J15</f>
-        <v>691.5</v>
+        <v>1062</v>
       </c>
       <c r="M15" s="3">
-        <v>44744.666666666664</v>
+        <v>44774.666666666664</v>
       </c>
       <c r="N15" s="3">
-        <v>44745.666666608799</v>
-      </c>
-      <c r="O15" s="3" t="s">
+        <v>44775.666666608799</v>
+      </c>
+      <c r="O15" s="3">
+        <v>44776.666666608799</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AH15" s="3">
         <v>44744.666666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A16">
-        <v>233821</v>
+        <v>233823</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1401,50 +1410,44 @@
         <v>2022</v>
       </c>
       <c r="D16">
-        <v>-157.03604100000001</v>
+        <v>-156.62820429999999</v>
       </c>
       <c r="E16">
-        <v>58.7880325</v>
+        <v>58.647052799999997</v>
       </c>
       <c r="F16">
-        <v>-156.97999999999999</v>
+        <v>-156.72999999999999</v>
       </c>
       <c r="G16">
         <v>58.7</v>
       </c>
       <c r="H16" s="3">
-        <v>44775</v>
+        <v>44737</v>
       </c>
       <c r="I16" s="3">
-        <v>44774.666666666664</v>
+        <v>44736.666666666664</v>
       </c>
       <c r="J16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16" s="1">
-        <v>4248</v>
+        <v>1075</v>
       </c>
       <c r="L16" s="1">
         <f>K16/J16</f>
-        <v>1062</v>
-      </c>
-      <c r="M16" s="3">
-        <v>44774.666666666664</v>
-      </c>
-      <c r="N16" s="3">
-        <v>44775.666666608799</v>
-      </c>
-      <c r="O16" s="3">
-        <v>44776.666666608799</v>
-      </c>
-      <c r="P16" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M16" s="2">
+        <v>44740</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AH16" s="3">
         <v>44774.666666666664</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>233824</v>
       </c>
@@ -1497,7 +1500,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG17" xr:uid="{4E6CFE96-B674-C64B-B85A-88C10AD99D45}"/>
+  <autoFilter ref="A1:AG17" xr:uid="{4E6CFE96-B674-C64B-B85A-88C10AD99D45}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG17">
+      <sortCondition ref="A1:A17"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AH17">
     <sortCondition ref="A5:A17"/>
   </sortState>
